--- a/src/main/webapp/downloadFile/고객 등록 양식.xlsx
+++ b/src/main/webapp/downloadFile/고객 등록 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deer\intelliJ-workspace\DJ_CAMTIC\src\main\webapp\downloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FDA256-E557-40B4-A887-FEEA06CFC774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F00B5F-509F-450A-AFF7-AB7AC99B7850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>* 필수 정보를 모두 입력해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>기타인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex)Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,6 +321,26 @@
   </si>
   <si>
     <t>ex)2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 고객분류 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - 기업, 2 - 기관, 3 - 기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y = 예, N = 아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자만 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +352,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +410,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -550,16 +574,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,31 +590,28 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,10 +635,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,410 +965,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73636589-33A7-4360-B47D-FDF8211FC1EB}">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
-    <col min="6" max="9" width="21.25" style="6" customWidth="1"/>
-    <col min="10" max="11" width="21.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="24.375" style="7" customWidth="1"/>
-    <col min="13" max="17" width="21.25" style="7" customWidth="1"/>
-    <col min="18" max="18" width="26.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="50" width="21.25" style="7" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="22" customWidth="1"/>
+    <col min="7" max="12" width="21.25" style="23" customWidth="1"/>
+    <col min="13" max="14" width="24.375" style="23" customWidth="1"/>
+    <col min="15" max="19" width="21.25" style="23" customWidth="1"/>
+    <col min="20" max="20" width="26.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="52" width="21.25" style="23" customWidth="1"/>
+    <col min="53" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:52" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="16" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="16" t="s">
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+    </row>
+    <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+    </row>
+    <row r="3" spans="1:52" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="21" t="s">
+      <c r="AK3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ4" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-    </row>
-    <row r="3" spans="1:50" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO3" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX3" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
+    <row r="5" spans="1:52" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="23">
+        <v>32121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO1:AZ1"/>
+    <mergeCell ref="AO2:AZ2"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="V2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
